--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Desktop\BENAZETRobin_4_24062021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC136DCC-F9BA-4C8F-B14C-9F6EAF4327CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425AD2F9-D127-475B-B896-415092DC3BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>Catégorie</t>
   </si>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>rajout du nom sur les liens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enlever les chiffres des images et url </t>
+  </si>
+  <si>
+    <t>renommé les images et url</t>
+  </si>
+  <si>
+    <t>mettre les bons noms de photo et url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changement des noms de photo et url </t>
   </si>
 </sst>
 </file>
@@ -534,7 +546,7 @@
   <dimension ref="A1:Z989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -833,7 +845,23 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Desktop\BENAZETRobin_4_24062021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425AD2F9-D127-475B-B896-415092DC3BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB092A4-4CCB-4169-B380-56E0F92F89C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>Catégorie</t>
   </si>
@@ -225,9 +225,6 @@
     <t>rajout du nom sur les liens</t>
   </si>
   <si>
-    <t xml:space="preserve">enlever les chiffres des images et url </t>
-  </si>
-  <si>
     <t>renommé les images et url</t>
   </si>
   <si>
@@ -235,6 +232,36 @@
   </si>
   <si>
     <t xml:space="preserve">changement des noms de photo et url </t>
+  </si>
+  <si>
+    <t>Seo/accessibilité</t>
+  </si>
+  <si>
+    <t>Balise link mauvaise sources</t>
+  </si>
+  <si>
+    <t>Balise script mauvaise sources</t>
+  </si>
+  <si>
+    <t>image et url mal nommés</t>
+  </si>
+  <si>
+    <t>sources des balises erronées</t>
+  </si>
+  <si>
+    <t>mettre les bonnes sources ou chemin d'acces</t>
+  </si>
+  <si>
+    <t>changer les sources</t>
+  </si>
+  <si>
+    <t>pas de direction direct vers l'email</t>
+  </si>
+  <si>
+    <t>l'email n'est pas un liens mailto:</t>
+  </si>
+  <si>
+    <t>mettre le mail en liens mailto:</t>
   </si>
 </sst>
 </file>
@@ -546,7 +573,7 @@
   <dimension ref="A1:Z989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -850,21 +877,69 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="6" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Desktop\BENAZETRobin_4_24062021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB092A4-4CCB-4169-B380-56E0F92F89C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A996368-0440-4FDC-889C-84BF907387B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
   <si>
     <t>Catégorie</t>
   </si>
@@ -126,48 +126,30 @@
     <t>SEO/accessibilité</t>
   </si>
   <si>
-    <t>Pas de langue spécifié</t>
-  </si>
-  <si>
     <t>rajouter la langue a la balise html</t>
   </si>
   <si>
     <t>rajouter fr</t>
   </si>
   <si>
-    <t>obsolete</t>
-  </si>
-  <si>
     <t>la supprimer</t>
   </si>
   <si>
     <t>La supprimer</t>
   </si>
   <si>
-    <t>aucune description avec des mots clé</t>
-  </si>
-  <si>
     <t>ajouter une description utilisants les mots clés</t>
   </si>
   <si>
     <t>ajout de la description</t>
   </si>
   <si>
-    <t>"." à la place d'un titre</t>
-  </si>
-  <si>
     <t>ajouter un titre</t>
   </si>
   <si>
     <t>Ajout de "la chouette agence" en titre</t>
   </si>
   <si>
-    <t>manque balise header main footer</t>
-  </si>
-  <si>
-    <t>obsolete et considérer comme blackhat</t>
-  </si>
-  <si>
     <t>rajouter les balises sémantiques</t>
   </si>
   <si>
@@ -180,45 +162,30 @@
     <t>suppression des div keywords</t>
   </si>
   <si>
-    <t>alt vagues non correspondant a l'img</t>
-  </si>
-  <si>
     <t>mettre description de l'image</t>
   </si>
   <si>
     <t>modification du alt avec description img</t>
   </si>
   <si>
-    <t>annuaire ne correspond pas du tout à la page</t>
-  </si>
-  <si>
     <t>retirer les annuaires</t>
   </si>
   <si>
     <t>suppression des annuaires</t>
   </si>
   <si>
-    <t>Image à la place du texte</t>
-  </si>
-  <si>
     <t>mettre des &lt;p&gt; et ecrire le texte</t>
   </si>
   <si>
     <t>suppression des images et ecriture du texte</t>
   </si>
   <si>
-    <t>&lt;li&gt; vide</t>
-  </si>
-  <si>
     <t>suppression du&lt; li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;supprimé</t>
   </si>
   <si>
-    <t>pas de nom sur les liens</t>
-  </si>
-  <si>
     <t>rajouter du nom sur les liens</t>
   </si>
   <si>
@@ -243,12 +210,6 @@
     <t>Balise script mauvaise sources</t>
   </si>
   <si>
-    <t>image et url mal nommés</t>
-  </si>
-  <si>
-    <t>sources des balises erronées</t>
-  </si>
-  <si>
     <t>mettre les bonnes sources ou chemin d'acces</t>
   </si>
   <si>
@@ -258,17 +219,146 @@
     <t>pas de direction direct vers l'email</t>
   </si>
   <si>
-    <t>l'email n'est pas un liens mailto:</t>
-  </si>
-  <si>
     <t>mettre le mail en liens mailto:</t>
+  </si>
+  <si>
+    <t>La balises est devenu obsolete, elle ne sert à rien</t>
+  </si>
+  <si>
+    <t>La balise meta Description propose un texte (non visible dans le navigateur) qui sera repris dans les résultats de recherche du moteur.  Et permet l'indexation</t>
+  </si>
+  <si>
+    <t>le nom de la page web tel qu’il apparaît dans les résultats des moteurs de recherche</t>
+  </si>
+  <si>
+    <t>Les balises sémantiques sont dans le cadre la programmation HTML des pages web et de l'optimisation SEO des balises qui donnent du sens et renseignent sur la nature ou l'importance des informations qu'elles encadrent.</t>
+  </si>
+  <si>
+    <t>elle provoque du blackhat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> correspond au texte alternatif d'une image ou d'un visuel sur une page Internet. Il fait partie des champs possibles à remplir en codage HTML et permet de donner une description de l'image ou du visuel si ce dernier n'apparaît pas à l'écran</t>
+  </si>
+  <si>
+    <t>n'informe pas le contenue de la page correspondante</t>
+  </si>
+  <si>
+    <t>cela provoque des textes non visible ou difficile à lire</t>
+  </si>
+  <si>
+    <t>bien ecrire les sources pour ne pas avoir des erreurs par la suite sur le site</t>
+  </si>
+  <si>
+    <t>Mieux organiser afin que le visiteur se sente au mieux sur le site et passe du temps dessus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il est important de suivre la structure : H1 &gt; H2 &gt;H3 ect </t>
+  </si>
+  <si>
+    <t>cela allege le site retirant le poids de l'image et permet plus d'accessibilité sur le site pour les non voyant ect</t>
+  </si>
+  <si>
+    <t>représente une légende pour un objet d'une interface utilisateur</t>
+  </si>
+  <si>
+    <t>permet une meilleure gestion de son html et organisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provoque des erreurs sur le site </t>
+  </si>
+  <si>
+    <t>permet d'ammener directement sur l'application mail par default</t>
+  </si>
+  <si>
+    <t>ne corresponde pas au site actuel et non aucun liens avec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un bon choix pour les images compressées avec pertes. C'est le format le plus populaire et parmi les mieux pris en charge. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">permet de mieux gerer l'indexation et de ne pas ralentir le site </t>
+  </si>
+  <si>
+    <t>La balise permet de definir la langue du site</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Global_attributes/lang</t>
+  </si>
+  <si>
+    <t>https://optimiz.me/la-balise-meta-keywords/</t>
+  </si>
+  <si>
+    <t>https://fr.semrush.com/blog/basiques-seo-meta-description/?kw=&amp;cmp=FR_SRCH_DSA_Blog_Core_BU_FR&amp;label=dsa_pagefeed&amp;Network=g&amp;Device=c&amp;utm_content=486541998946&amp;kwid=dsa-1100351993444&amp;cmpid=11849486850&amp;agpid=113156847337&amp;BU=Core&amp;extid=152584053920&amp;adpos=&amp;gclid=CjwKCAjwruSHBhAtEiwA_qCppq6z1LDHeGmGXcEYPkyNdFlygHNV910wLiWLIpwbWEfIsvzWqz9YMhoCTCAQAvD_BwE</t>
+  </si>
+  <si>
+    <t>https://www.referenseo.com/guide-seo/balise-title/</t>
+  </si>
+  <si>
+    <t>https://fr.semrush.com/blog/balises-structurelles-html-semantique/</t>
+  </si>
+  <si>
+    <t>changer le format des img</t>
+  </si>
+  <si>
+    <t>changement du format des img en jpg ou png</t>
+  </si>
+  <si>
+    <t>redimensionner les img</t>
+  </si>
+  <si>
+    <t>renomé le menu</t>
+  </si>
+  <si>
+    <t>changement de page2  en contact</t>
+  </si>
+  <si>
+    <t>changer les couleurs</t>
+  </si>
+  <si>
+    <t>modification des couleurs</t>
+  </si>
+  <si>
+    <t>verifier les sources apres ecritures</t>
+  </si>
+  <si>
+    <t>modifier les sources et mettre les bonnes</t>
+  </si>
+  <si>
+    <t>arranger la mise en page</t>
+  </si>
+  <si>
+    <t>organiser la mise en page</t>
+  </si>
+  <si>
+    <t>bien structurer l'html</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/Media/Formats/Image_types</t>
+  </si>
+  <si>
+    <t>https://blog.comexplorer.com/attribut-alt-images-interet</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Understanding_WCAG/Perceivable/Color_contrast</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/Source</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/Label</t>
+  </si>
+  <si>
+    <t>https://fr.w3docs.com/snippets/html/comment-creer-des-liens-malito.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -311,6 +401,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -342,10 +439,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,8 +453,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -572,15 +673,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="58.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" customWidth="1"/>
+    <col min="3" max="3" width="125.5546875" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
     <col min="5" max="5" width="30.5546875" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
@@ -635,13 +736,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>33</v>
+      <c r="F2" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -652,13 +756,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>36</v>
+      <c r="F3" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -669,13 +776,16 @@
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -686,13 +796,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -703,13 +816,16 @@
         <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -720,13 +836,13 @@
         <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -737,13 +853,13 @@
         <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -753,7 +869,18 @@
       <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="C9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -762,7 +889,15 @@
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="C10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -772,45 +907,90 @@
         <v>16</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -820,8 +1000,20 @@
       <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -829,33 +1021,31 @@
         <v>21</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -863,92 +1053,98 @@
         <v>24</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1907,7 +2103,14 @@
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{F97DAB09-7FD6-43B6-9140-CB1FC302A0A8}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{EA621A15-A06A-4DFC-94C4-C27EC01E6EE1}"/>
+    <hyperlink ref="F4" r:id="rId3" display="https://fr.semrush.com/blog/basiques-seo-meta-description/?kw=&amp;cmp=FR_SRCH_DSA_Blog_Core_BU_FR&amp;label=dsa_pagefeed&amp;Network=g&amp;Device=c&amp;utm_content=486541998946&amp;kwid=dsa-1100351993444&amp;cmpid=11849486850&amp;agpid=113156847337&amp;BU=Core&amp;extid=152584053920&amp;adpos=&amp;gclid=CjwKCAjwruSHBhAtEiwA_qCppq6z1LDHeGmGXcEYPkyNdFlygHNV910wLiWLIpwbWEfIsvzWqz9YMhoCTCAQAvD_BwE" xr:uid="{46C8205F-E555-45F2-9C3B-A4408A255173}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{5A748C69-6F97-4838-8F75-22F5A17FF009}"/>
+    <hyperlink ref="F16" r:id="rId5" xr:uid="{87F53D14-FF5F-45B1-A6C6-3A5181CBB036}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Desktop\BENAZETRobin_4_24062021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A996368-0440-4FDC-889C-84BF907387B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7748361-BAD3-48C9-9EBB-3AE4101E9027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="116">
   <si>
     <t>Catégorie</t>
   </si>
@@ -352,6 +352,33 @@
   </si>
   <si>
     <t>https://fr.w3docs.com/snippets/html/comment-creer-des-liens-malito.html</t>
+  </si>
+  <si>
+    <t>balise non utilisé créer un probleme d'asseccibilité pour les non voyants</t>
+  </si>
+  <si>
+    <t>http://tassedecafe.org/fr/responsive-redimensionner-image-css-conserver-ratio-1175</t>
+  </si>
+  <si>
+    <t>https://www.redacteur.com/blog/referencement-ecrire-textes-ameliorer-seo/</t>
+  </si>
+  <si>
+    <t>https://www.oscar-referencement.com/astuces-optimiser-images-referencement-naturel/</t>
+  </si>
+  <si>
+    <t>Pas de focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aide a voir au on se situe sur la page en utlisant le clavier </t>
+  </si>
+  <si>
+    <t>ajouter le :focus</t>
+  </si>
+  <si>
+    <t>ajout du focus</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/CSS/:focus</t>
   </si>
 </sst>
 </file>
@@ -673,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -844,6 +871,9 @@
       <c r="E7" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -898,6 +928,9 @@
       <c r="E10" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -992,6 +1025,9 @@
       <c r="E15" s="8" t="s">
         <v>98</v>
       </c>
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -1029,6 +1065,9 @@
       <c r="E17" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="F17" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1037,7 +1076,9 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="D18" s="6" t="s">
         <v>49</v>
       </c>
@@ -1136,7 +1177,26 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" t="s">
+        <v>115</v>
+      </c>
+    </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
